--- a/interface/appInterface/telaPrimaria/promocoes.xlsx
+++ b/interface/appInterface/telaPrimaria/promocoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sanidade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/interface/appInterface/telaPrimaria/promocoes.xlsx
+++ b/interface/appInterface/telaPrimaria/promocoes.xlsx
@@ -767,27 +767,27 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>Mundo Animal</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>Torres de batata</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>-29.709187307987996</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>-52.42625533514549</t>
         </is>
